--- a/4_Radiation/Embedded_Qs/4_2_Embedded_Qs.xlsx
+++ b/4_Radiation/Embedded_Qs/4_2_Embedded_Qs.xlsx
@@ -283,9 +283,6 @@
     <t>This essentially says that all the radiative energy leaving surface i has to hit either surface j or k.</t>
   </si>
   <si>
-    <t>Look at the example shown.  Is the view factor from A to B larger/ smaller/ the same as the view factor from B to A?</t>
-  </si>
-  <si>
     <t>F_AB is larger</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>Try estimating a value to check your answer from the chart.  Will half the radiation from B hit A?  How do you know?</t>
+  </si>
+  <si>
+    <t>Look at the example shown.  Just by observation (no calculation necessary), is the view factor from A to B larger/ smaller/ the same as the view factor from B to A?</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,27 +1358,27 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1422,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1440,14 +1440,14 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
